--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43013,6 +43013,41 @@
         <v>98000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>126000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43048,6 +43048,41 @@
         <v>126000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>89000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43083,6 +43083,41 @@
         <v>89000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>228200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43118,6 +43118,41 @@
         <v>228200</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>35000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43153,6 +43153,41 @@
         <v>35000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>121400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43188,6 +43188,41 @@
         <v>121400</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>90000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43223,6 +43223,41 @@
         <v>90000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>128600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43258,6 +43258,41 @@
         <v>128600</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>189100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43293,6 +43293,41 @@
         <v>189100</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>92000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43328,6 +43328,41 @@
         <v>92000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>345200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43363,6 +43363,41 @@
         <v>345200</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>179400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43398,6 +43398,41 @@
         <v>179400</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>77100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43433,6 +43433,76 @@
         <v>77100</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>190300</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1155000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43503,6 +43503,76 @@
         <v>1155000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>47300</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>321300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43573,6 +43573,43 @@
         <v>321300</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43610,6 +43610,41 @@
         </is>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43645,6 +43645,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>78000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43680,6 +43680,41 @@
         <v>78000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>981700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43715,6 +43715,76 @@
         <v>981700</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>1048800</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>401600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43785,6 +43785,41 @@
         <v>401600</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>627900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43820,6 +43820,41 @@
         <v>627900</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>792500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1934"/>
+  <dimension ref="A1:I1935"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68110,6 +68110,41 @@
         <v>792500</v>
       </c>
     </row>
+    <row r="1935">
+      <c r="A1935" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1935" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1935" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1935" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1935" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1935" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1935" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1935" t="n">
+        <v>529900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1935"/>
+  <dimension ref="A1:I1936"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68145,6 +68145,41 @@
         <v>529900</v>
       </c>
     </row>
+    <row r="1936">
+      <c r="A1936" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1936" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1936" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1936" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1936" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1936" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1936" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1936" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1936" t="n">
+        <v>400000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1936"/>
+  <dimension ref="A1:I1937"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68180,6 +68180,41 @@
         <v>400000</v>
       </c>
     </row>
+    <row r="1937">
+      <c r="A1937" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1937" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1937" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1937" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1937" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1937" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1937" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1937" t="n">
+        <v>290600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1937"/>
+  <dimension ref="A1:I1938"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68215,6 +68215,41 @@
         <v>290600</v>
       </c>
     </row>
+    <row r="1938">
+      <c r="A1938" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1938" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1938" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1938" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1938" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1938" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1938" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1938" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1938" t="n">
+        <v>498500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1938"/>
+  <dimension ref="A1:I1939"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68250,6 +68250,41 @@
         <v>498500</v>
       </c>
     </row>
+    <row r="1939">
+      <c r="A1939" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1939" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1939" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1939" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1939" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1939" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1939" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1939" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1939" t="n">
+        <v>450400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1939"/>
+  <dimension ref="A1:I1940"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68285,6 +68285,41 @@
         <v>450400</v>
       </c>
     </row>
+    <row r="1940">
+      <c r="A1940" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1940" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1940" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1940" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1940" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1940" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1940" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1940" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1940" t="n">
+        <v>103800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1940"/>
+  <dimension ref="A1:I1941"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68320,6 +68320,41 @@
         <v>103800</v>
       </c>
     </row>
+    <row r="1941">
+      <c r="A1941" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1941" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1941" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1941" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1941" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1941" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1941" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1941" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1941" t="n">
+        <v>681200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1941"/>
+  <dimension ref="A1:I1942"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68355,6 +68355,41 @@
         <v>681200</v>
       </c>
     </row>
+    <row r="1942">
+      <c r="A1942" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1942" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1942" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1942" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1942" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1942" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1942" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1942" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1942" t="n">
+        <v>165000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1942"/>
+  <dimension ref="A1:I1943"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68390,6 +68390,41 @@
         <v>165000</v>
       </c>
     </row>
+    <row r="1943">
+      <c r="A1943" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1943" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1943" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1943" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1943" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1943" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1943" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1943" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1943" t="n">
+        <v>165100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1943"/>
+  <dimension ref="A1:I1944"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68425,6 +68425,41 @@
         <v>165100</v>
       </c>
     </row>
+    <row r="1944">
+      <c r="A1944" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1944" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1944" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1944" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1944" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1944" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1944" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1944" t="n">
+        <v>194300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1944"/>
+  <dimension ref="A1:I1945"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68460,6 +68460,41 @@
         <v>194300</v>
       </c>
     </row>
+    <row r="1945">
+      <c r="A1945" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1945" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1945" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1945" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1945" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1945" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1945" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1945" t="n">
+        <v>162200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1945"/>
+  <dimension ref="A1:I1946"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68495,6 +68495,41 @@
         <v>162200</v>
       </c>
     </row>
+    <row r="1946">
+      <c r="A1946" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1946" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1946" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1946" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1946" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1946" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1946" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1946" t="n">
+        <v>286400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1946"/>
+  <dimension ref="A1:I1947"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68530,6 +68530,41 @@
         <v>286400</v>
       </c>
     </row>
+    <row r="1947">
+      <c r="A1947" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1947" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1947" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1947" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1947" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1947" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1947" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1947" t="n">
+        <v>483000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1947"/>
+  <dimension ref="A1:I1948"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68565,6 +68565,41 @@
         <v>483000</v>
       </c>
     </row>
+    <row r="1948">
+      <c r="A1948" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1948" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1948" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1948" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1948" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1948" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1948" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1948" t="n">
+        <v>282000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1948"/>
+  <dimension ref="A1:I1949"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68600,6 +68600,41 @@
         <v>282000</v>
       </c>
     </row>
+    <row r="1949">
+      <c r="A1949" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1949" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1949" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D1949" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E1949" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1949" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1949" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1949" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1949" t="n">
+        <v>304200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2428"/>
+  <dimension ref="A1:I2429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85400,6 +85400,41 @@
         <v>304200</v>
       </c>
     </row>
+    <row r="2429">
+      <c r="A2429" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2429" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2429" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D2429" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E2429" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2429" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2429" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2429" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2429" t="n">
+        <v>104000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2429"/>
+  <dimension ref="A1:I2430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85435,6 +85435,41 @@
         <v>104000</v>
       </c>
     </row>
+    <row r="2430">
+      <c r="A2430" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2430" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2430" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D2430" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E2430" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F2430" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G2430" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H2430" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I2430" t="n">
+        <v>549400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2430"/>
+  <dimension ref="A1:I2431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85470,6 +85470,41 @@
         <v>549400</v>
       </c>
     </row>
+    <row r="2431">
+      <c r="A2431" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2431" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2431" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D2431" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E2431" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2431" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G2431" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H2431" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I2431" t="n">
+        <v>221200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2431"/>
+  <dimension ref="A1:I2432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85505,6 +85505,41 @@
         <v>221200</v>
       </c>
     </row>
+    <row r="2432">
+      <c r="A2432" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2432" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2432" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D2432" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E2432" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F2432" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G2432" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H2432" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I2432" t="n">
+        <v>105000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2432"/>
+  <dimension ref="A1:I2433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85540,6 +85540,41 @@
         <v>105000</v>
       </c>
     </row>
+    <row r="2433">
+      <c r="A2433" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2433" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2433" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D2433" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E2433" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2433" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2433" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H2433" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2433" t="n">
+        <v>178100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2433"/>
+  <dimension ref="A1:I2434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85575,6 +85575,41 @@
         <v>178100</v>
       </c>
     </row>
+    <row r="2434">
+      <c r="A2434" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2434" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2434" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D2434" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E2434" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F2434" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2434" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H2434" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2434" t="n">
+        <v>20300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2434"/>
+  <dimension ref="A1:I2435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85610,6 +85610,41 @@
         <v>20300</v>
       </c>
     </row>
+    <row r="2435">
+      <c r="A2435" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2435" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2435" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D2435" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E2435" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2435" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G2435" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H2435" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I2435" t="n">
+        <v>85000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2435"/>
+  <dimension ref="A1:I2436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85645,6 +85645,41 @@
         <v>85000</v>
       </c>
     </row>
+    <row r="2436">
+      <c r="A2436" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2436" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2436" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D2436" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E2436" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2436" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2436" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H2436" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I2436" t="n">
+        <v>33000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2436"/>
+  <dimension ref="A1:I2437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85680,6 +85680,41 @@
         <v>33000</v>
       </c>
     </row>
+    <row r="2437">
+      <c r="A2437" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2437" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2437" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D2437" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E2437" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F2437" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G2437" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H2437" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I2437" t="n">
+        <v>179500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2437"/>
+  <dimension ref="A1:I2438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85715,6 +85715,41 @@
         <v>179500</v>
       </c>
     </row>
+    <row r="2438">
+      <c r="A2438" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2438" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2438" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D2438" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E2438" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F2438" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G2438" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H2438" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2438" t="n">
+        <v>318100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2438"/>
+  <dimension ref="A1:I2440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85750,6 +85750,76 @@
         <v>318100</v>
       </c>
     </row>
+    <row r="2439">
+      <c r="A2439" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2439" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2439" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D2439" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E2439" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2439" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G2439" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2439" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I2439" t="n">
+        <v>350300</v>
+      </c>
+    </row>
+    <row r="2440">
+      <c r="A2440" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2440" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2440" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D2440" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E2440" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2440" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G2440" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2440" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2440" t="n">
+        <v>170700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2440"/>
+  <dimension ref="A1:I2441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85820,6 +85820,41 @@
         <v>170700</v>
       </c>
     </row>
+    <row r="2441">
+      <c r="A2441" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2441" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2441" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D2441" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E2441" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F2441" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G2441" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H2441" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I2441" t="n">
+        <v>29800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2441"/>
+  <dimension ref="A1:I2444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85855,6 +85855,111 @@
         <v>29800</v>
       </c>
     </row>
+    <row r="2442">
+      <c r="A2442" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2442" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2442" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D2442" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E2442" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2442" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G2442" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H2442" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2442" t="n">
+        <v>244000</v>
+      </c>
+    </row>
+    <row r="2443">
+      <c r="A2443" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2443" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2443" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D2443" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E2443" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2443" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G2443" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2443" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I2443" t="n">
+        <v>87300</v>
+      </c>
+    </row>
+    <row r="2444">
+      <c r="A2444" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2444" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2444" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D2444" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E2444" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F2444" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G2444" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H2444" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2444" t="n">
+        <v>85700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2444"/>
+  <dimension ref="A1:I2445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85960,6 +85960,41 @@
         <v>85700</v>
       </c>
     </row>
+    <row r="2445">
+      <c r="A2445" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2445" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2445" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D2445" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E2445" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F2445" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2445" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2445" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I2445" t="n">
+        <v>858300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2445"/>
+  <dimension ref="A1:I2446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85995,6 +85995,41 @@
         <v>858300</v>
       </c>
     </row>
+    <row r="2446">
+      <c r="A2446" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2446" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2446" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D2446" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E2446" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2446" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2446" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H2446" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I2446" t="n">
+        <v>330000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0112.xlsx
+++ b/data/0112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2446"/>
+  <dimension ref="A1:I2449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86030,6 +86030,111 @@
         <v>330000</v>
       </c>
     </row>
+    <row r="2447">
+      <c r="A2447" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2447" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2447" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D2447" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E2447" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F2447" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2447" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H2447" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I2447" t="n">
+        <v>342000</v>
+      </c>
+    </row>
+    <row r="2448">
+      <c r="A2448" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2448" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2448" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D2448" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E2448" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F2448" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G2448" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2448" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I2448" t="n">
+        <v>209000</v>
+      </c>
+    </row>
+    <row r="2449">
+      <c r="A2449" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2449" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2449" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
+      </c>
+      <c r="D2449" t="inlineStr">
+        <is>
+          <t>MIKROMB</t>
+        </is>
+      </c>
+      <c r="E2449" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2449" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G2449" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2449" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I2449" t="n">
+        <v>39100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
